--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9947"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
@@ -66,15 +66,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,6 +95,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -102,16 +117,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,57 +142,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +160,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,12 +278,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -273,12 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,6 +302,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,19 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,49 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,45 +494,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -561,16 +526,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,6 +1059,9 @@
                   <c:pt idx="34">
                     <c:v>1.439</c:v>
                   </c:pt>
+                  <c:pt idx="35">
+                    <c:v>1.467</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0" c:formatCode="yyyy/m/d">
@@ -1165,6 +1168,9 @@
                   </c:pt>
                   <c:pt idx="34" c:formatCode="yyyy/m/d">
                     <c:v>43364</c:v>
+                  </c:pt>
+                  <c:pt idx="35" c:formatCode="yyyy/m/d">
+                    <c:v>43371</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1283,6 +1289,9 @@
                 </c:pt>
                 <c:pt idx="35" c:formatCode="General">
                   <c:v>1.439</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="General">
+                  <c:v>1.467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,8 +2712,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4309745" y="654685"/>
-        <a:ext cx="12588240" cy="7919720"/>
+        <a:off x="4714875" y="620395"/>
+        <a:ext cx="14023340" cy="7908290"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2788,8 +2797,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4491355" y="616585"/>
-        <a:ext cx="9405620" cy="6189980"/>
+        <a:off x="4896485" y="582295"/>
+        <a:ext cx="10497820" cy="6178550"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2825,8 +2834,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4434205" y="1522095"/>
-        <a:ext cx="9405620" cy="5735955"/>
+        <a:off x="4839335" y="1476375"/>
+        <a:ext cx="10497820" cy="5438775"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3128,19 +3137,19 @@
   <sheetPr/>
   <dimension ref="B2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3437,8 +3446,13 @@
         <v>1.439</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C41" s="1"/>
+    <row r="41" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B41" s="8">
+        <v>43371</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1.467</v>
+      </c>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="3:3">
       <c r="C42" s="1"/>
@@ -3585,15 +3599,15 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4270,15 +4284,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="22368" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="22">
@@ -60,7 +60,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,20 +71,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,7 +89,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +121,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,32 +142,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -195,13 +202,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -218,7 +218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,13 +272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,19 +290,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,19 +332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,36 +374,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,31 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,16 +579,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,115 +597,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,6 +1062,9 @@
                   <c:pt idx="35">
                     <c:v>1.467</c:v>
                   </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1.493</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0" c:formatCode="yyyy/m/d">
@@ -1171,6 +1174,9 @@
                   </c:pt>
                   <c:pt idx="35" c:formatCode="yyyy/m/d">
                     <c:v>43371</c:v>
+                  </c:pt>
+                  <c:pt idx="36" c:formatCode="yyyy/m/d">
+                    <c:v>43385</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1292,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="36" c:formatCode="General">
                   <c:v>1.467</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="General">
+                  <c:v>1.493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,7 +1327,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
@@ -2694,13 +2703,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666115</xdr:colOff>
+      <xdr:colOff>600710</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>343535</xdr:colOff>
+      <xdr:colOff>278130</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
@@ -2712,8 +2721,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4714875" y="620395"/>
-        <a:ext cx="14023340" cy="7908290"/>
+        <a:off x="4244340" y="654685"/>
+        <a:ext cx="12588240" cy="7919720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2797,8 +2806,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4896485" y="582295"/>
-        <a:ext cx="10497820" cy="6178550"/>
+        <a:off x="4491355" y="616585"/>
+        <a:ext cx="9405620" cy="6189980"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2834,8 +2843,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4839335" y="1476375"/>
-        <a:ext cx="10497820" cy="5438775"/>
+        <a:off x="4434205" y="1522095"/>
+        <a:ext cx="9405620" cy="5735955"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3137,19 +3146,19 @@
   <sheetPr/>
   <dimension ref="B2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3454,8 +3463,13 @@
         <v>1.467</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C42" s="1"/>
+    <row r="42" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B42" s="8">
+        <v>43385</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1.493</v>
+      </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="3:3">
       <c r="C43" s="1"/>
@@ -3599,15 +3613,15 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4284,15 +4298,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
@@ -66,11 +66,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,29 +84,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,6 +110,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -143,14 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,39 +181,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +218,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,49 +260,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,49 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,25 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,24 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,6 +535,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,9 +950,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>基金收益表!$B$6:$C$42</c:f>
+              <c:f>基金收益表!$B$6:$C$103</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="98"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1.331</c:v>
@@ -1064,6 +1064,9 @@
                   </c:pt>
                   <c:pt idx="36">
                     <c:v>1.493</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1.501</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1177,6 +1180,9 @@
                   </c:pt>
                   <c:pt idx="36" c:formatCode="yyyy/m/d">
                     <c:v>43385</c:v>
+                  </c:pt>
+                  <c:pt idx="37" c:formatCode="yyyy/m/d">
+                    <c:v>43392</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1301,6 +1307,9 @@
                 </c:pt>
                 <c:pt idx="37" c:formatCode="General">
                   <c:v>1.493</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="General">
+                  <c:v>1.501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,15 +2712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600710</xdr:colOff>
+      <xdr:colOff>597535</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102235</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2721,8 +2730,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4244340" y="654685"/>
-        <a:ext cx="12588240" cy="7919720"/>
+        <a:off x="4646295" y="617220"/>
+        <a:ext cx="15222220" cy="8587740"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2806,8 +2815,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4491355" y="616585"/>
-        <a:ext cx="9405620" cy="6189980"/>
+        <a:off x="4896485" y="582295"/>
+        <a:ext cx="10497820" cy="6178550"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2843,8 +2852,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4434205" y="1522095"/>
-        <a:ext cx="9405620" cy="5735955"/>
+        <a:off x="4839335" y="1476375"/>
+        <a:ext cx="10497820" cy="5438775"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3146,19 +3155,19 @@
   <sheetPr/>
   <dimension ref="B2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3471,8 +3480,13 @@
         <v>1.493</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C43" s="1"/>
+    <row r="43" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B43" s="8">
+        <v>43392</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1.501</v>
+      </c>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="3:3">
       <c r="C44" s="1"/>
@@ -3613,15 +3627,15 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4298,15 +4312,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="22">
@@ -60,14 +60,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,15 +111,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -165,13 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -180,11 +174,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,6 +191,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,43 +236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +266,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,8 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +545,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,34 +579,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,94 +618,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,6 +1068,9 @@
                   <c:pt idx="37">
                     <c:v>1.501</c:v>
                   </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1.487</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0" c:formatCode="yyyy/m/d">
@@ -1183,6 +1186,9 @@
                   </c:pt>
                   <c:pt idx="37" c:formatCode="yyyy/m/d">
                     <c:v>43392</c:v>
+                  </c:pt>
+                  <c:pt idx="38" c:formatCode="yyyy/m/d">
+                    <c:v>43399</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2712,15 +2718,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>597535</xdr:colOff>
+      <xdr:colOff>582295</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>102235</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2730,8 +2736,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4646295" y="617220"/>
-        <a:ext cx="15222220" cy="8587740"/>
+        <a:off x="4631055" y="588010"/>
+        <a:ext cx="15868015" cy="8947150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3156,7 +3162,7 @@
   <dimension ref="B2:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3488,8 +3494,13 @@
         <v>1.501</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C44" s="1"/>
+    <row r="44" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B44" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.487</v>
+      </c>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="3:3">
       <c r="C45" s="1"/>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="18588" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
@@ -60,7 +60,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,8 +105,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +127,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -103,32 +167,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,38 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -181,23 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +218,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +278,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +326,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,121 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,32 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,35 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +528,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,6 +751,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
@@ -837,10 +840,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -848,10 +851,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>稳赢基金净值一览表</a:t>
+              <a:rPr sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>稳赢基金净值收益图</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -872,10 +883,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0257515473032714"/>
-          <c:y val="0.0506384831084021"/>
-          <c:w val="0.957039568708762"/>
-          <c:h val="0.827761433538385"/>
+          <c:x val="0.0222765247828815"/>
+          <c:y val="0.0413625304136253"/>
+          <c:w val="0.976732820394281"/>
+          <c:h val="0.901238172479048"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -886,21 +897,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>基金收益表!$C$5</c:f>
+              <c:f>基金收益表!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基金净值</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -917,11 +927,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36195" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -943,263 +953,161 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>基金收益表!$B$6:$C$103</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="98"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1.331</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.286</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.265</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.304</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.272</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.283</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.316</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.312</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.287</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1.296</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.309</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.323</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1.308</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1.326</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1.315</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1.332</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1.359</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1.382</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1.367</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1.372</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1.356</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1.329</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1.335</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1.357</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1.368</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>1.393</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1.398</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1.407</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1.423</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>1.446</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>1.471</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>1.425</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1.438</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1.456</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>1.439</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>1.467</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1.493</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>1.501</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1.487</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0" c:formatCode="yyyy/m/d">
-                    <c:v>43105</c:v>
-                  </c:pt>
-                  <c:pt idx="1" c:formatCode="yyyy/m/d">
-                    <c:v>43112</c:v>
-                  </c:pt>
-                  <c:pt idx="2" c:formatCode="yyyy/m/d">
-                    <c:v>43119</c:v>
-                  </c:pt>
-                  <c:pt idx="3" c:formatCode="yyyy/m/d">
-                    <c:v>43126</c:v>
-                  </c:pt>
-                  <c:pt idx="4" c:formatCode="yyyy/m/d">
-                    <c:v>43133</c:v>
-                  </c:pt>
-                  <c:pt idx="5" c:formatCode="yyyy/m/d">
-                    <c:v>43140</c:v>
-                  </c:pt>
-                  <c:pt idx="6" c:formatCode="yyyy/m/d">
-                    <c:v>43154</c:v>
-                  </c:pt>
-                  <c:pt idx="7" c:formatCode="yyyy/m/d">
-                    <c:v>43161</c:v>
-                  </c:pt>
-                  <c:pt idx="8" c:formatCode="yyyy/m/d">
-                    <c:v>43168</c:v>
-                  </c:pt>
-                  <c:pt idx="9" c:formatCode="yyyy/m/d">
-                    <c:v>43175</c:v>
-                  </c:pt>
-                  <c:pt idx="10" c:formatCode="yyyy/m/d">
-                    <c:v>43182</c:v>
-                  </c:pt>
-                  <c:pt idx="11" c:formatCode="yyyy/m/d">
-                    <c:v>43189</c:v>
-                  </c:pt>
-                  <c:pt idx="12" c:formatCode="yyyy/m/d">
-                    <c:v>43203</c:v>
-                  </c:pt>
-                  <c:pt idx="13" c:formatCode="yyyy/m/d">
-                    <c:v>43210</c:v>
-                  </c:pt>
-                  <c:pt idx="14" c:formatCode="yyyy/m/d">
-                    <c:v>43217</c:v>
-                  </c:pt>
-                  <c:pt idx="15" c:formatCode="yyyy/m/d">
-                    <c:v>43224</c:v>
-                  </c:pt>
-                  <c:pt idx="16" c:formatCode="yyyy/m/d">
-                    <c:v>43231</c:v>
-                  </c:pt>
-                  <c:pt idx="17" c:formatCode="yyyy/m/d">
-                    <c:v>43238</c:v>
-                  </c:pt>
-                  <c:pt idx="18" c:formatCode="yyyy/m/d">
-                    <c:v>43245</c:v>
-                  </c:pt>
-                  <c:pt idx="19" c:formatCode="yyyy/m/d">
-                    <c:v>43252</c:v>
-                  </c:pt>
-                  <c:pt idx="20" c:formatCode="yyyy/m/d">
-                    <c:v>43259</c:v>
-                  </c:pt>
-                  <c:pt idx="21" c:formatCode="yyyy/m/d">
-                    <c:v>43266</c:v>
-                  </c:pt>
-                  <c:pt idx="22" c:formatCode="yyyy/m/d">
-                    <c:v>43273</c:v>
-                  </c:pt>
-                  <c:pt idx="23" c:formatCode="yyyy/m/d">
-                    <c:v>43280</c:v>
-                  </c:pt>
-                  <c:pt idx="24" c:formatCode="yyyy/m/d">
-                    <c:v>43287</c:v>
-                  </c:pt>
-                  <c:pt idx="25" c:formatCode="yyyy/m/d">
-                    <c:v>43294</c:v>
-                  </c:pt>
-                  <c:pt idx="26" c:formatCode="yyyy/m/d">
-                    <c:v>43301</c:v>
-                  </c:pt>
-                  <c:pt idx="27" c:formatCode="yyyy/m/d">
-                    <c:v>43308</c:v>
-                  </c:pt>
-                  <c:pt idx="28" c:formatCode="yyyy/m/d">
-                    <c:v>43315</c:v>
-                  </c:pt>
-                  <c:pt idx="29" c:formatCode="yyyy/m/d">
-                    <c:v>43322</c:v>
-                  </c:pt>
-                  <c:pt idx="30" c:formatCode="yyyy/m/d">
-                    <c:v>43329</c:v>
-                  </c:pt>
-                  <c:pt idx="31" c:formatCode="yyyy/m/d">
-                    <c:v>43336</c:v>
-                  </c:pt>
-                  <c:pt idx="32" c:formatCode="yyyy/m/d">
-                    <c:v>43343</c:v>
-                  </c:pt>
-                  <c:pt idx="33" c:formatCode="yyyy/m/d">
-                    <c:v>43357</c:v>
-                  </c:pt>
-                  <c:pt idx="34" c:formatCode="yyyy/m/d">
-                    <c:v>43364</c:v>
-                  </c:pt>
-                  <c:pt idx="35" c:formatCode="yyyy/m/d">
-                    <c:v>43371</c:v>
-                  </c:pt>
-                  <c:pt idx="36" c:formatCode="yyyy/m/d">
-                    <c:v>43385</c:v>
-                  </c:pt>
-                  <c:pt idx="37" c:formatCode="yyyy/m/d">
-                    <c:v>43392</c:v>
-                  </c:pt>
-                  <c:pt idx="38" c:formatCode="yyyy/m/d">
-                    <c:v>43399</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>基金收益表!$B$5:$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="78"/>
+                <c:pt idx="0" c:formatCode="0.00%">
+                  <c:v>日期</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>2018/1/5</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/1/12</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/1/19</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018/1/26</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/2/2</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/2/9</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/2/23</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/2</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/9</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/16</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/23</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/30</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/13</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/20</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/27</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>2018/5/4</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>2018/5/11</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>2018/6/8</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>2018/6/15</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>2018/6/22</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>2018/6/29</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>2018/7/6</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>2018/7/13</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                  <c:v>2018/7/20</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                  <c:v>2018/7/27</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                  <c:v>2018/8/3</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                  <c:v>2018/8/10</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/m/d">
+                  <c:v>2018/8/17</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/m/d">
+                  <c:v>2018/8/24</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/m/d">
+                  <c:v>2018/8/31</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/14</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/21</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/28</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/12</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/19</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/26</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>基金收益表!$C$5:$C$43</c:f>
+              <c:f>基金收益表!$C$5:$C$82</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1316,6 +1224,12 @@
                 </c:pt>
                 <c:pt idx="38" c:formatCode="General">
                   <c:v>1.501</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="General">
+                  <c:v>1.487</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="General">
+                  <c:v>1.475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,39 +1246,40 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="94493696"/>
-        <c:axId val="94388992"/>
+        <c:axId val="484477610"/>
+        <c:axId val="590880458"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94493696"/>
+        <c:axId val="484477610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="low"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1373,19 +1288,17 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94388992"/>
+        <c:crossAx val="590880458"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="20"/>
-        <c:tickLblSkip val="5"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94388992"/>
+        <c:axId val="590880458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1393,43 +1306,35 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1438,16 +1343,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94493696"/>
+        <c:crossAx val="484477610"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1460,17 +1361,21 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1483,7 +1388,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2713,31 +2617,585 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>582295</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>46990</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>316865</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4631055" y="588010"/>
-        <a:ext cx="15868015" cy="8947150"/>
+        <a:off x="5689600" y="815975"/>
+        <a:ext cx="24760555" cy="13171805"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2751,54 +3209,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.92827</cdr:x>
-      <cdr:y>0.55747</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.92855</cdr:x>
-      <cdr:y>0.55791</cdr:y>
-    </cdr:to>
-    <cdr:sp>
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="曲线连接符 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10666730" y="4016375"/>
-          <a:ext cx="3175" cy="3175"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2821,8 +3231,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4896485" y="582295"/>
-        <a:ext cx="10497820" cy="6178550"/>
+        <a:off x="4491355" y="616585"/>
+        <a:ext cx="9405620" cy="6189980"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2835,7 +3245,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2858,8 +3268,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4839335" y="1476375"/>
-        <a:ext cx="10497820" cy="5438775"/>
+        <a:off x="4434205" y="1522095"/>
+        <a:ext cx="9405620" cy="5735955"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3161,24 +3571,24 @@
   <sheetPr/>
   <dimension ref="B2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AX49" sqref="AX49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="19:19">
-      <c r="S2" s="15">
+      <c r="S2" s="16">
         <v>1.323</v>
       </c>
     </row>
@@ -3498,12 +3908,17 @@
       <c r="B44" s="8">
         <v>43399</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="15">
         <v>1.487</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C45" s="1"/>
+    <row r="45" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B45" s="8">
+        <v>43406</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1.475</v>
+      </c>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="3:3">
       <c r="C46" s="1"/>
@@ -3517,9 +3932,7 @@
     <row r="49" ht="20.1" customHeight="1" spans="3:3">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C50" s="1"/>
-    </row>
+    <row r="50" ht="20.1" customHeight="1"/>
     <row r="51" ht="20.1" customHeight="1" spans="3:3">
       <c r="C51" s="1"/>
     </row>
@@ -3638,15 +4051,15 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4323,15 +4736,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9444"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -66,16 +66,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -83,7 +90,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,11 +111,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,14 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,45 +159,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +224,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,43 +308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,43 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,37 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +464,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,37 +537,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,49 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,6 +1099,9 @@
                 <c:pt idx="40" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/2</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/9</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1230,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="General">
                   <c:v>1.475</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="General">
+                  <c:v>1.482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,8 +3200,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5689600" y="815975"/>
-        <a:ext cx="24760555" cy="13171805"/>
+        <a:off x="6300470" y="770255"/>
+        <a:ext cx="27498675" cy="13171805"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3231,8 +3237,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4491355" y="616585"/>
-        <a:ext cx="9405620" cy="6189980"/>
+        <a:off x="4896485" y="582295"/>
+        <a:ext cx="10497820" cy="6178550"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3268,8 +3274,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4434205" y="1522095"/>
-        <a:ext cx="9405620" cy="5735955"/>
+        <a:off x="4839335" y="1476375"/>
+        <a:ext cx="10497820" cy="5438775"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3571,19 +3577,19 @@
   <sheetPr/>
   <dimension ref="B2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AX49" sqref="AX49"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3920,8 +3926,13 @@
         <v>1.475</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C46" s="1"/>
+    <row r="46" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B46" s="8">
+        <v>43413</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1.482</v>
+      </c>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="3:3">
       <c r="C47" s="1"/>
@@ -4051,15 +4062,15 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4736,15 +4747,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -30,9 +30,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="22">
@@ -60,13 +60,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -74,7 +67,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -96,16 +104,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +126,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +173,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -150,32 +189,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,21 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +260,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,25 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,25 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,37 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,37 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +464,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -475,6 +499,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,48 +553,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,6 +1102,9 @@
                 <c:pt idx="41" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/9</c:v>
                 </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1236,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="41" c:formatCode="General">
                   <c:v>1.482</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="General">
+                  <c:v>1.502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,7 +3584,7 @@
   <dimension ref="B2:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3934,8 +3940,13 @@
         <v>1.482</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C47" s="1"/>
+    <row r="47" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B47" s="8">
+        <v>43420</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1.502</v>
+      </c>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="3:3">
       <c r="C48" s="1"/>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -29,10 +29,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="22">
@@ -60,32 +60,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,14 +76,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,16 +95,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,14 +105,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,11 +133,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,8 +157,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,19 +218,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,37 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,67 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +290,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +362,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +464,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,21 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -511,66 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,6 +1105,9 @@
                 <c:pt idx="42" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/16</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/23</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1242,6 +1245,9 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="General">
                   <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="General">
+                  <c:v>1.527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,13 +3196,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
+      <xdr:colOff>173355</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>316865</xdr:colOff>
+      <xdr:colOff>295910</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>187960</xdr:rowOff>
     </xdr:to>
@@ -3206,7 +3212,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6300470" y="770255"/>
+        <a:off x="6279515" y="770255"/>
         <a:ext cx="27498675" cy="13171805"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3583,8 +3589,8 @@
   <sheetPr/>
   <dimension ref="B2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3948,8 +3954,13 @@
         <v>1.502</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C48" s="1"/>
+    <row r="48" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B48" s="8">
+        <v>43427</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1.527</v>
+      </c>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="3:3">
       <c r="C49" s="1"/>

--- a/稳赢基金净值表2018年 - 副本.xlsx
+++ b/稳赢基金净值表2018年 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="基金收益表" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -66,11 +66,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,30 +96,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,39 +128,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,13 +146,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +165,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -196,8 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +218,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,6 +254,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,7 +284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,43 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,41 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +488,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +519,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,6 +1108,9 @@
                 <c:pt idx="43" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/23</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/30</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1248,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="General">
                   <c:v>1.527</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="General">
+                  <c:v>1.556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3596,7 @@
   <dimension ref="B2:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3962,8 +3968,13 @@
         <v>1.527</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:3">
-      <c r="C49" s="1"/>
+    <row r="49" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B49" s="8">
+        <v>43434</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1.556</v>
+      </c>
     </row>
     <row r="50" ht="20.1" customHeight="1"/>
     <row r="51" ht="20.1" customHeight="1" spans="3:3">
